--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value297.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value297.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.613357928617034</v>
+        <v>0.9463879466056824</v>
       </c>
       <c r="B1">
-        <v>1.677833207557598</v>
+        <v>1.634548187255859</v>
       </c>
       <c r="C1">
-        <v>1.835423701524512</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.487787573831508</v>
+        <v>2.507455110549927</v>
       </c>
       <c r="E1">
-        <v>0.5685830601780993</v>
+        <v>1.339817643165588</v>
       </c>
     </row>
   </sheetData>
